--- a/OperadoraNominas/bin/Debug/Archivos/nominas1.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/nominas1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Xurtep\XurtepNominas\XurtepNominas\bin\Debug\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Operadora\OperadoraNominas\OperadoraNominas\bin\Debug\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -436,90 +436,6 @@
   </si>
   <si>
     <t>Subsidio Causado</t>
-  </si>
-  <si>
-    <t>MORE6301192Q2</t>
-  </si>
-  <si>
-    <t>PEPR640104TP9</t>
-  </si>
-  <si>
-    <t>ZAFJ710528LE0</t>
-  </si>
-  <si>
-    <t>ROPJ801020T1A</t>
-  </si>
-  <si>
-    <t>LISJ840429269</t>
-  </si>
-  <si>
-    <t>LOCE680623V3A</t>
-  </si>
-  <si>
-    <t>GISG7811067NA</t>
-  </si>
-  <si>
-    <t>PISM9311228H0</t>
-  </si>
-  <si>
-    <t>GOFJ930422EZ9</t>
-  </si>
-  <si>
-    <t>VAZC790718V96</t>
-  </si>
-  <si>
-    <t>GAGE920221VC4</t>
-  </si>
-  <si>
-    <t>RARS8001202P4</t>
-  </si>
-  <si>
-    <t>AUDF850610SD6</t>
-  </si>
-  <si>
-    <t>SAHW92050291A</t>
-  </si>
-  <si>
-    <t>MORALES RAMOS ESTEBAN</t>
-  </si>
-  <si>
-    <t>PEREZ PEREZ RIGOBERTO</t>
-  </si>
-  <si>
-    <t>ZAMBRANO FLORES JORGE</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ PULIDO JORGE ULISES</t>
-  </si>
-  <si>
-    <t>LIZARRAGA SIQUEIROS JOSE</t>
-  </si>
-  <si>
-    <t>LOPEZ CARRILLO ERIS</t>
-  </si>
-  <si>
-    <t>GIL SALAZAR GONZALO</t>
-  </si>
-  <si>
-    <t>PIMENTEL SASTRE MANUEL DE JESUS</t>
-  </si>
-  <si>
-    <t>GONZALEZ FERRERA JORGE LUIS</t>
-  </si>
-  <si>
-    <t>VALDEZ ZAZUETA CARLOS MIGUEL</t>
-  </si>
-  <si>
-    <t>GARCIA GONZALEZ ETHAN ORLANDO</t>
-  </si>
-  <si>
-    <t>RAMOS RODRIGUEZ SERGIO ALBERTO</t>
-  </si>
-  <si>
-    <t>ANGULO DOMINGUEZ FRANCISCO</t>
-  </si>
-  <si>
-    <t>SANTAMARIA HERNANDEZ WIDSON JESUS</t>
   </si>
 </sst>
 </file>
@@ -530,7 +446,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -594,17 +510,12 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,12 +538,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -889,7 +794,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -908,14 +813,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="5" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -932,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1380,7 +1277,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AE814"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1389,17 +1286,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="27" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="23" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="29" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="25" customWidth="1"/>
     <col min="13" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" customWidth="1"/>
@@ -1409,8 +1306,8 @@
     <col min="20" max="20" width="17.7109375" customWidth="1"/>
     <col min="21" max="21" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" style="27" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" style="27" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" style="23" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" style="23" customWidth="1"/>
     <col min="28" max="28" width="16.7109375" customWidth="1"/>
     <col min="29" max="29" width="15.7109375" customWidth="1"/>
     <col min="30" max="30" width="23.7109375" customWidth="1"/>
@@ -1418,10 +1315,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1430,10 +1327,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1445,48 +1342,48 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="32"/>
+      <c r="N1" s="28"/>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="31" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="32"/>
+      <c r="S1" s="28"/>
       <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="31" t="s">
+      <c r="W1" s="28"/>
+      <c r="X1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="31" t="s">
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="32"/>
+      <c r="AA1" s="28"/>
       <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3910,34 +3807,34 @@
       <c r="L804"/>
     </row>
     <row r="805" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L805" s="30"/>
+      <c r="L805" s="26"/>
     </row>
     <row r="806" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L806" s="30"/>
+      <c r="L806" s="26"/>
     </row>
     <row r="807" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L807" s="30"/>
+      <c r="L807" s="26"/>
     </row>
     <row r="808" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L808" s="30"/>
+      <c r="L808" s="26"/>
     </row>
     <row r="809" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L809" s="30"/>
+      <c r="L809" s="26"/>
     </row>
     <row r="810" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L810" s="30"/>
+      <c r="L810" s="26"/>
     </row>
     <row r="811" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L811" s="30"/>
+      <c r="L811" s="26"/>
     </row>
     <row r="812" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L812" s="30"/>
+      <c r="L812" s="26"/>
     </row>
     <row r="813" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L813" s="30"/>
+      <c r="L813" s="26"/>
     </row>
     <row r="814" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L814" s="30"/>
+      <c r="L814" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4013,43 +3910,43 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="34" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="34" t="s">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="35"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="31"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4142,11 +4039,11 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD5"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4178,21 +4075,21 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="40" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="35" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4241,231 +4138,47 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="20"/>
-    <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="17.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="16"/>
+    <col min="4" max="4" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="16">
-        <v>118.68621973162287</v>
-      </c>
-      <c r="D16" s="16">
-        <v>406.62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/OperadoraNominas/bin/Debug/Archivos/nominas1.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/nominas1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>Subsidio Causado</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
   </si>
 </sst>
 </file>
@@ -794,7 +797,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -869,6 +872,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Millares 2" xfId="3"/>
@@ -1277,7 +1281,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AE814"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4140,11 +4144,11 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD16"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4172,7 +4176,9 @@
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="40" t="s">
+        <v>64</v>
+      </c>
       <c r="C3" s="20" t="s">
         <v>58</v>
       </c>

--- a/OperadoraNominas/bin/Debug/Archivos/nominas1.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/nominas1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Documents\MBC Group\Timbrado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Operadora\OperadoraNominas\OperadoraNominas\bin\Debug\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -749,36 +749,6 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,6 +765,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,85 +1136,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="11" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="11" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="9" t="s">
+      <c r="W1" s="16"/>
+      <c r="X1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="9" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="11" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1237,165 +1237,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="16" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="19"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="4"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1404,11 +1405,11 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -1418,7 +1419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1434,87 +1435,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1551,26 +1552,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="17"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="4" t="s">
         <v>67</v>
       </c>
     </row>
